--- a/Codelist Excel Files and Conversion Templates to XML/aashtoD145.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/aashtoD145.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A48C28-1670-164B-87DB-23EEF63C7330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A91BFD-97BD-0D40-A61C-E935A2B203FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20200" yWindow="9660" windowWidth="35840" windowHeight="20900" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -758,9 +758,6 @@
     <t>A-1-a</t>
   </si>
   <si>
-    <t>AASHTO</t>
-  </si>
-  <si>
     <t>A-1-b</t>
   </si>
   <si>
@@ -876,6 +873,9 @@
   </si>
   <si>
     <t>Highly organic soils (peat or muck)  based on visual inspection, and are not dependent on percentage passing the 75-μm (No. 200) sieve, liquid limit, or plasticity index. The material is composed primarily of partially decayed organic matter, and generally has a fibrous texture, dark brown or black color, and an odor of decay.</t>
+  </si>
+  <si>
+    <t>AASHTO D 145</t>
   </si>
 </sst>
 </file>
@@ -1702,8 +1702,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1758,14 +1758,14 @@
         <v>238</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="14" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>234</v>
@@ -1781,17 +1781,17 @@
         <v>a-1-b</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="14" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>234</v>
@@ -1807,17 +1807,17 @@
         <v>a-3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="14" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>234</v>
@@ -1833,17 +1833,17 @@
         <v>a-2-4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="14" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>234</v>
@@ -1859,17 +1859,17 @@
         <v>a-2-5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="14" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>234</v>
@@ -1885,17 +1885,17 @@
         <v>a-2-6</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="14" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>234</v>
@@ -1911,17 +1911,17 @@
         <v>a-2-7</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="14" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>234</v>
@@ -1937,17 +1937,17 @@
         <v>a-4</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="14" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>234</v>
@@ -1963,17 +1963,17 @@
         <v>a-5</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>234</v>
@@ -1989,17 +1989,17 @@
         <v>a-6</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="14" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>234</v>
@@ -2015,17 +2015,17 @@
         <v>a-7-5</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="14" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>234</v>
@@ -2041,17 +2041,17 @@
         <v>a-7-6</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="14" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>234</v>
@@ -2067,17 +2067,17 @@
         <v>a-8</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="14" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>234</v>
@@ -2131,10 +2131,10 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2143,10 +2143,10 @@
         <v/>
       </c>
       <c r="B3" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2155,10 +2155,10 @@
         <v/>
       </c>
       <c r="B4" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2167,10 +2167,10 @@
         <v/>
       </c>
       <c r="B5" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2179,10 +2179,10 @@
         <v/>
       </c>
       <c r="B6" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2191,10 +2191,10 @@
         <v/>
       </c>
       <c r="B7" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2203,10 +2203,10 @@
         <v/>
       </c>
       <c r="B8" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2215,10 +2215,10 @@
         <v/>
       </c>
       <c r="B9" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2227,10 +2227,10 @@
         <v/>
       </c>
       <c r="B10" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2239,10 +2239,10 @@
         <v/>
       </c>
       <c r="B11" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2251,10 +2251,10 @@
         <v/>
       </c>
       <c r="B12" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2263,10 +2263,10 @@
         <v/>
       </c>
       <c r="B13" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2275,10 +2275,10 @@
         <v/>
       </c>
       <c r="B14" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
